--- a/public/data_file/TemplateMenuLiveCooking.xlsx
+++ b/public/data_file/TemplateMenuLiveCooking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ympiserver\xampp\htdocs\miraidev\public\data_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEC1B92-7B77-4F43-9CBA-1FFE1FEAB1E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63CC3D2-EA18-45A8-9FBC-4EAE548C35A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{2999626C-F4AC-459F-819F-939693B92247}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Tanggal</t>
   </si>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t>BAKMI GORENG JAWA</t>
-  </si>
-  <si>
-    <t>Hari</t>
-  </si>
-  <si>
-    <t>Kamis</t>
   </si>
   <si>
     <t>Kuota</t>
@@ -448,44 +442,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1E3A44-F2B3-486B-B57D-26B85D801266}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44287</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="C2" s="2">
         <v>120</v>
       </c>
     </row>
